--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2121133333333334</v>
+        <v>0.1133093333333333</v>
       </c>
       <c r="H2">
-        <v>0.6363400000000001</v>
+        <v>0.339928</v>
       </c>
       <c r="I2">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="J2">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.187598666666667</v>
+        <v>1.070065</v>
       </c>
       <c r="N2">
-        <v>12.562796</v>
+        <v>3.210195</v>
       </c>
       <c r="O2">
-        <v>0.4284941686600627</v>
+        <v>0.07699366399823478</v>
       </c>
       <c r="P2">
-        <v>0.4284941686600626</v>
+        <v>0.07699366399823478</v>
       </c>
       <c r="Q2">
-        <v>0.8882455118488891</v>
+        <v>0.1212483517733333</v>
       </c>
       <c r="R2">
-        <v>7.994209606640002</v>
+        <v>1.09123516596</v>
       </c>
       <c r="S2">
-        <v>0.01841144763959025</v>
+        <v>0.001891468062447208</v>
       </c>
       <c r="T2">
-        <v>0.01841144763959024</v>
+        <v>0.001891468062447208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2121133333333334</v>
+        <v>0.1133093333333333</v>
       </c>
       <c r="H3">
-        <v>0.6363400000000001</v>
+        <v>0.339928</v>
       </c>
       <c r="I3">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="J3">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.613757</v>
       </c>
       <c r="O3">
-        <v>0.1232586918910792</v>
+        <v>0.08667273864337491</v>
       </c>
       <c r="P3">
-        <v>0.1232586918910792</v>
+        <v>0.08667273864337491</v>
       </c>
       <c r="Q3">
-        <v>0.2555086810422223</v>
+        <v>0.1364907988328889</v>
       </c>
       <c r="R3">
-        <v>2.29957812938</v>
+        <v>1.228417189496</v>
       </c>
       <c r="S3">
-        <v>0.005296153641888536</v>
+        <v>0.002129249453988008</v>
       </c>
       <c r="T3">
-        <v>0.005296153641888534</v>
+        <v>0.002129249453988008</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2121133333333334</v>
+        <v>0.1133093333333333</v>
       </c>
       <c r="H4">
-        <v>0.6363400000000001</v>
+        <v>0.339928</v>
       </c>
       <c r="I4">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="J4">
-        <v>0.04296779043029778</v>
+        <v>0.02456654176752224</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.380641</v>
+        <v>11.623441</v>
       </c>
       <c r="N4">
-        <v>13.141923</v>
+        <v>34.870323</v>
       </c>
       <c r="O4">
-        <v>0.4482471394488581</v>
+        <v>0.8363335973583904</v>
       </c>
       <c r="P4">
-        <v>0.4482471394488581</v>
+        <v>0.8363335973583904</v>
       </c>
       <c r="Q4">
-        <v>0.9291923646466668</v>
+        <v>1.317044350749333</v>
       </c>
       <c r="R4">
-        <v>8.362731281820002</v>
+        <v>11.853399156744</v>
       </c>
       <c r="S4">
-        <v>0.019260189148819</v>
+        <v>0.02054582425108702</v>
       </c>
       <c r="T4">
-        <v>0.019260189148819</v>
+        <v>0.02054582425108702</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>11.596231</v>
       </c>
       <c r="I5">
-        <v>0.7830160344930734</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="J5">
-        <v>0.7830160344930733</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>4.187598666666667</v>
+        <v>1.070065</v>
       </c>
       <c r="N5">
-        <v>12.562796</v>
+        <v>3.210195</v>
       </c>
       <c r="O5">
-        <v>0.4284941686600627</v>
+        <v>0.07699366399823478</v>
       </c>
       <c r="P5">
-        <v>0.4284941686600626</v>
+        <v>0.07699366399823478</v>
       </c>
       <c r="Q5">
-        <v>16.18678715798622</v>
+        <v>4.136240308338333</v>
       </c>
       <c r="R5">
-        <v>145.681084421876</v>
+        <v>37.226162775045</v>
       </c>
       <c r="S5">
-        <v>0.3355178047476085</v>
+        <v>0.06452513644436542</v>
       </c>
       <c r="T5">
-        <v>0.3355178047476084</v>
+        <v>0.06452513644436542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>11.596231</v>
       </c>
       <c r="I6">
-        <v>0.7830160344930734</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="J6">
-        <v>0.7830160344930733</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.613757</v>
       </c>
       <c r="O6">
-        <v>0.1232586918910792</v>
+        <v>0.08667273864337491</v>
       </c>
       <c r="P6">
-        <v>0.1232586918910792</v>
+        <v>0.08667273864337491</v>
       </c>
       <c r="Q6">
         <v>4.656217883318556</v>
@@ -818,10 +818,10 @@
         <v>41.905960949867</v>
       </c>
       <c r="S6">
-        <v>0.09651353214135638</v>
+        <v>0.07263675991700835</v>
       </c>
       <c r="T6">
-        <v>0.09651353214135636</v>
+        <v>0.07263675991700835</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>11.596231</v>
       </c>
       <c r="I7">
-        <v>0.7830160344930734</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="J7">
-        <v>0.7830160344930733</v>
+        <v>0.8380577451911468</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.380641</v>
+        <v>11.623441</v>
       </c>
       <c r="N7">
-        <v>13.141923</v>
+        <v>34.870323</v>
       </c>
       <c r="O7">
-        <v>0.4482471394488581</v>
+        <v>0.8363335973583904</v>
       </c>
       <c r="P7">
-        <v>0.4482471394488581</v>
+        <v>0.8363335973583904</v>
       </c>
       <c r="Q7">
-        <v>16.93297498802367</v>
+        <v>44.92936895029033</v>
       </c>
       <c r="R7">
-        <v>152.396774892213</v>
+        <v>404.364320552613</v>
       </c>
       <c r="S7">
-        <v>0.3509846976041086</v>
+        <v>0.7008958488297732</v>
       </c>
       <c r="T7">
-        <v>0.3509846976041085</v>
+        <v>0.7008958488297732</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8590423333333334</v>
+        <v>0.6336240000000001</v>
       </c>
       <c r="H8">
-        <v>2.577127</v>
+        <v>1.900872</v>
       </c>
       <c r="I8">
-        <v>0.1740161750766289</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="J8">
-        <v>0.1740161750766288</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>4.187598666666667</v>
+        <v>1.070065</v>
       </c>
       <c r="N8">
-        <v>12.562796</v>
+        <v>3.210195</v>
       </c>
       <c r="O8">
-        <v>0.4284941686600627</v>
+        <v>0.07699366399823478</v>
       </c>
       <c r="P8">
-        <v>0.4284941686600626</v>
+        <v>0.07699366399823478</v>
       </c>
       <c r="Q8">
-        <v>3.597324529676889</v>
+        <v>0.6780188655600001</v>
       </c>
       <c r="R8">
-        <v>32.375920767092</v>
+        <v>6.10216979004</v>
       </c>
       <c r="S8">
-        <v>0.07456491627286402</v>
+        <v>0.01057705949142215</v>
       </c>
       <c r="T8">
-        <v>0.07456491627286398</v>
+        <v>0.01057705949142215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8590423333333334</v>
+        <v>0.6336240000000001</v>
       </c>
       <c r="H9">
-        <v>2.577127</v>
+        <v>1.900872</v>
       </c>
       <c r="I9">
-        <v>0.1740161750766289</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="J9">
-        <v>0.1740161750766288</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.613757</v>
       </c>
       <c r="O9">
-        <v>0.1232586918910792</v>
+        <v>0.08667273864337491</v>
       </c>
       <c r="P9">
-        <v>0.1232586918910792</v>
+        <v>0.08667273864337491</v>
       </c>
       <c r="Q9">
-        <v>1.034790081793222</v>
+        <v>0.7632543884560001</v>
       </c>
       <c r="R9">
-        <v>9.313110736139</v>
+        <v>6.869289496104001</v>
       </c>
       <c r="S9">
-        <v>0.02144900610783429</v>
+        <v>0.01190672927237854</v>
       </c>
       <c r="T9">
-        <v>0.02144900610783429</v>
+        <v>0.01190672927237854</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8590423333333334</v>
+        <v>0.6336240000000001</v>
       </c>
       <c r="H10">
-        <v>2.577127</v>
+        <v>1.900872</v>
       </c>
       <c r="I10">
-        <v>0.1740161750766289</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="J10">
-        <v>0.1740161750766288</v>
+        <v>0.1373757130413309</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.380641</v>
+        <v>11.623441</v>
       </c>
       <c r="N10">
-        <v>13.141923</v>
+        <v>34.870323</v>
       </c>
       <c r="O10">
-        <v>0.4482471394488581</v>
+        <v>0.8363335973583904</v>
       </c>
       <c r="P10">
-        <v>0.4482471394488581</v>
+        <v>0.8363335973583904</v>
       </c>
       <c r="Q10">
-        <v>3.763156066135667</v>
+        <v>7.364891180184001</v>
       </c>
       <c r="R10">
-        <v>33.868404595221</v>
+        <v>66.284020621656</v>
       </c>
       <c r="S10">
-        <v>0.07800225269593056</v>
+        <v>0.1148919242775302</v>
       </c>
       <c r="T10">
-        <v>0.07800225269593054</v>
+        <v>0.1148919242775302</v>
       </c>
     </row>
   </sheetData>
